--- a/biology/Médecine/Jean-Théodore_Marquais/Jean-Théodore_Marquais.xlsx
+++ b/biology/Médecine/Jean-Théodore_Marquais/Jean-Théodore_Marquais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Th%C3%A9odore_Marquais</t>
+          <t>Jean-Théodore_Marquais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Thomas Marquais, né vers 1760 et mort à Paris le 13 avril 1818, est un chirurgien français. 
 Après avoir été chirurgien principal de la Charité, il fut, par ordonnance du 13 novembre 1815, chargé d'examiner l'état de l'enseignement dans les écoles de médecine et de chirurgie. Le docteur Marquais voulait que l'on sépare l'enseignement de ces deux disciplines.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Th%C3%A9odore_Marquais</t>
+          <t>Jean-Théodore_Marquais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Réponse de M. Th. Marquais au mémoire de M. Magendie sur le vomissement, lu à l'Institut le 1er mars 1813, et sur le rapport fait à cette Société Savante par MM. Cuvier, Pinel, Humboldt et Percy ; Paris, 1813
 Rapport sur l'état actuel de la Médecine en France, 1814
